--- a/Data-SB 5yr forecast.xlsx
+++ b/Data-SB 5yr forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Documents/GitHub/5yr_govt_forecast_viz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD7934-4F0B-1246-A6FB-DDFD4239D673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DEB40-B92D-D446-8F95-E58ECA7F809D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="19220" windowHeight="13460" xr2:uid="{796CE9F0-146C-B241-8ACF-C3823346E9AE}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="12580" windowHeight="13460" xr2:uid="{796CE9F0-146C-B241-8ACF-C3823346E9AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F4224370-1B5F-F64F-BC2F-1F5ED013FAA0}</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{F4224370-1B5F-F64F-BC2F-1F5ED013FAA0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Forecast says 16.7 but %increase of 15% in cultivation tax, choosing 16.65 to be more conservative in %increase (16.7 -&gt; 19% increase total)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>20-21</t>
   </si>
@@ -126,9 +144,6 @@
     <t>https://www.countyofsb.org/ceo/asset.c/4337</t>
   </si>
   <si>
-    <t>Surpluss(if only use top3 revenue)</t>
-  </si>
-  <si>
     <t>Canabus Tax</t>
   </si>
   <si>
@@ -136,6 +151,18 @@
   </si>
   <si>
     <t>Baseline Scenario</t>
+  </si>
+  <si>
+    <t>Total Major only</t>
+  </si>
+  <si>
+    <t>General Fund Gap</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>Incramental</t>
   </si>
 </sst>
 </file>
@@ -145,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +192,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -200,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -270,15 +303,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -322,6 +346,50 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -330,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -338,21 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -363,20 +423,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,6 +466,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Sarah Gill" id="{9A9A56BA-73BF-7245-B228-AD31BE89D61E}" userId="Sarah Gill" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,12 +769,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G6" dT="2021-03-12T17:49:32.14" personId="{9A9A56BA-73BF-7245-B228-AD31BE89D61E}" id="{F4224370-1B5F-F64F-BC2F-1F5ED013FAA0}">
+    <text>Forecast says 16.7 but %increase of 15% in cultivation tax, choosing 16.65 to be more conservative in %increase (16.7 -&gt; 19% increase total)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE68406-6A08-7D4D-AA12-5DC89B2F8088}">
-  <dimension ref="A1:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE68406-6A08-7D4D-AA12-5DC89B2F8088}">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,12 +794,12 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -737,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
@@ -777,43 +864,43 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>235.7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.76</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="42">
-        <v>14.05</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="23">
+      <c r="F5" s="8"/>
+      <c r="G5" s="29">
+        <v>14</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="15">
         <v>11.2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.04</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="23">
+      <c r="K5" s="8"/>
+      <c r="L5" s="15">
         <v>10.5</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="24">
+      <c r="M5" s="24"/>
+      <c r="N5" s="16">
         <f>S5-Q5</f>
-        <v>38.681578947368394</v>
-      </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35">
+        <v>38.731578947368405</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25">
         <f>L5+I5+D5+N5+G5</f>
         <v>310.13157894736838</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="28">
         <f>L5+I5+D5+G5</f>
-        <v>271.45</v>
+        <v>271.39999999999998</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="41">
+      <c r="S5" s="28">
         <f>D5/E5</f>
         <v>310.13157894736838</v>
       </c>
@@ -825,62 +912,65 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="16">
         <f>D5*(1+F6)</f>
         <v>243.94949999999997</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="35">
+        <f>D6/P6</f>
+        <v>0.75100734968095428</v>
+      </c>
+      <c r="F6" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="24">
-        <f>G5*(1+H6)</f>
-        <v>16.22775</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0.155</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="G6" s="32">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="H6" s="26">
+        <f>(G6-G5)/G5</f>
+        <v>0.1892857142857142</v>
+      </c>
+      <c r="I6" s="16">
         <f>I5*(1+K6)</f>
         <v>11.423999999999999</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="16">
+      <c r="J6" s="34">
+        <f>I6/P6</f>
+        <v>3.5169196750783345E-2</v>
+      </c>
+      <c r="K6" s="10">
         <v>0.02</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="16">
         <v>13.3</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="26">
         <f>(L6-L5)/L5</f>
         <v>0.26666666666666672</v>
       </c>
-      <c r="N6" s="24">
-        <f t="shared" ref="N6:N10" si="0">S6-Q6</f>
-        <v>36.084934210526285</v>
-      </c>
-      <c r="O6" s="36">
-        <f>(N6-N5)/N5</f>
-        <v>-6.7128716239200081E-2</v>
-      </c>
-      <c r="P6" s="35">
+      <c r="N6" s="16">
+        <f>N5*(1+O6)</f>
+        <v>39.506210526315776</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="25">
         <f>L6+I6+D6+N6+G6</f>
-        <v>320.98618421052629</v>
-      </c>
-      <c r="Q6" s="41">
+        <v>324.82971052631575</v>
+      </c>
+      <c r="Q6" s="28">
         <f>L6+I6+D6+G6</f>
-        <v>284.90125</v>
+        <v>285.32349999999997</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3">
         <f>D6/E6</f>
-        <v>320.98618421052629</v>
-      </c>
-      <c r="T6" s="36">
+        <v>324.82971052631575</v>
+      </c>
+      <c r="T6" s="26">
         <f>(S6-S5)/S5</f>
-        <v>3.5000000000000045E-2</v>
+        <v>4.7393211709800598E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -890,237 +980,281 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
-        <f t="shared" ref="D7:D9" si="1">D6*(1+F7)</f>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D9" si="0">D6*(1+F7)</f>
         <v>249.56033849999994</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="35">
+        <f t="shared" ref="E7:E10" si="1">D7/P7</f>
+        <v>0.74522985996039715</v>
+      </c>
+      <c r="F7" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="24">
+      <c r="G7" s="16">
+        <f>G6*(1+H7)</f>
+        <v>19.801845</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.1893</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" ref="I7:I10" si="2">I6*(1+K7)</f>
         <v>11.652479999999999</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="16">
+      <c r="J7" s="34">
+        <f t="shared" ref="J7:J10" si="3">I7/P7</f>
+        <v>3.4796298525582137E-2</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.02</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="16">
         <f>L6*(1+M7)</f>
         <v>13.566000000000001</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>0.02</v>
       </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
-        <v>53.590047947368419</v>
-      </c>
-      <c r="O7" s="36">
-        <f t="shared" ref="O7:O10" si="3">(N7-N6)/N6</f>
-        <v>0.48510865046099327</v>
-      </c>
-      <c r="P7" s="35">
+      <c r="N7" s="16">
+        <f>N6*(1+O7)</f>
+        <v>40.296334736842091</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="P7" s="25">
         <f>L7+I7+D7+N7+G7</f>
-        <v>328.36886644736836</v>
-      </c>
-      <c r="Q7" s="41">
+        <v>334.87699823684204</v>
+      </c>
+      <c r="Q7" s="28">
         <f>L7+I7+D7+G7</f>
-        <v>274.77881849999994</v>
+        <v>294.58066349999996</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3">
         <f>D7/E7</f>
-        <v>328.36886644736836</v>
-      </c>
-      <c r="T7" s="36">
+        <v>334.87699823684204</v>
+      </c>
+      <c r="T7" s="26">
         <f t="shared" ref="T7:T10" si="4">(S7-S6)/S6</f>
-        <v>2.2999999999999899E-2</v>
+        <v>3.0930938226823065E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>255.30022628549992</v>
+      </c>
+      <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>255.30022628549992</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="F8" s="12">
+        <v>0.73855422084478639</v>
+      </c>
+      <c r="F8" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="24">
+      <c r="G8" s="16">
+        <f t="shared" ref="G8:G10" si="5">G7*(1+H8)</f>
+        <v>23.550334258500001</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.1893</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>11.885529599999998</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="16">
+      <c r="J8" s="34">
+        <f t="shared" si="3"/>
+        <v>3.4383471494612641E-2</v>
+      </c>
+      <c r="K8" s="10">
         <v>0.02</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="16">
         <f>L7*(1+M8)</f>
         <v>13.837320000000002</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>0.02</v>
       </c>
-      <c r="N8" s="24">
-        <f t="shared" si="0"/>
-        <v>54.89827449015786</v>
-      </c>
-      <c r="O8" s="36">
-        <f t="shared" si="3"/>
-        <v>2.4411744211803466E-2</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="N8" s="16">
+        <f t="shared" ref="N8:N10" si="6">N7*(1+O8)</f>
+        <v>41.102261431578931</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="P8" s="25">
         <f>L8+I8+D8+N8+G8</f>
-        <v>335.92135037565777</v>
-      </c>
-      <c r="Q8" s="41">
+        <v>345.67567157557886</v>
+      </c>
+      <c r="Q8" s="28">
         <f>L8+I8+D8+G8</f>
-        <v>281.02307588549991</v>
+        <v>304.57341014399992</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3">
         <f>D8/E8</f>
-        <v>335.92135037565777</v>
-      </c>
-      <c r="T8" s="36">
+        <v>345.67567157557886</v>
+      </c>
+      <c r="T8" s="26">
         <f t="shared" si="4"/>
-        <v>2.2999999999999795E-2</v>
+        <v>3.2246685784908545E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>261.17213149006642</v>
+      </c>
+      <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>261.17213149006642</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="F9" s="12">
+        <v>0.73087411091104559</v>
+      </c>
+      <c r="F9" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="24">
+      <c r="G9" s="16">
+        <f t="shared" si="5"/>
+        <v>28.008412533634051</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.1893</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>12.123240191999999</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="16">
+      <c r="J9" s="34">
+        <f t="shared" si="3"/>
+        <v>3.3926140381582252E-2</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.02</v>
       </c>
-      <c r="L9" s="24">
-        <f t="shared" ref="L9:L10" si="5">L8*(1+M9)</f>
+      <c r="L9" s="16">
+        <f t="shared" ref="L9:L10" si="7">L8*(1+M9)</f>
         <v>14.114066400000002</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>0.02</v>
       </c>
-      <c r="N9" s="24">
-        <f t="shared" si="0"/>
-        <v>56.238103352231519</v>
-      </c>
-      <c r="O9" s="36">
-        <f t="shared" si="3"/>
-        <v>2.4405664376825967E-2</v>
-      </c>
-      <c r="P9" s="35">
+      <c r="N9" s="16">
+        <f t="shared" si="6"/>
+        <v>41.924306660210512</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="25">
         <f>L9+I9+D9+N9+G9</f>
-        <v>343.64754143429792</v>
-      </c>
-      <c r="Q9" s="41">
+        <v>357.34215727591095</v>
+      </c>
+      <c r="Q9" s="28">
         <f>L9+I9+D9+G9</f>
-        <v>287.4094380820664</v>
+        <v>315.41785061570044</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3">
         <f>D9/E9</f>
-        <v>343.64754143429792</v>
-      </c>
-      <c r="T9" s="36">
+        <v>357.34215727591095</v>
+      </c>
+      <c r="T9" s="26">
         <f t="shared" si="4"/>
-        <v>2.3000000000000076E-2</v>
+        <v>3.3749802660848573E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <f>D9*(1+F10)</f>
         <v>267.17909051433793</v>
       </c>
-      <c r="E10" s="14">
-        <v>0.76</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="41">
+        <f t="shared" si="1"/>
+        <v>0.72207766258597617</v>
+      </c>
+      <c r="F10" s="42">
         <v>2.3E-2</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="25">
+      <c r="G10" s="43">
+        <f t="shared" si="5"/>
+        <v>33.310405026250976</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0.1893</v>
+      </c>
+      <c r="I10" s="17">
         <f t="shared" si="2"/>
         <v>12.36570499584</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="17">
+      <c r="J10" s="45">
+        <f t="shared" si="3"/>
+        <v>3.3419528984977617E-2</v>
+      </c>
+      <c r="K10" s="46">
         <v>0.02</v>
       </c>
-      <c r="L10" s="25">
-        <f t="shared" si="5"/>
+      <c r="L10" s="43">
+        <f t="shared" si="7"/>
         <v>14.396347728000002</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="47">
         <v>0.02</v>
       </c>
-      <c r="N10" s="25">
-        <f t="shared" si="0"/>
-        <v>57.610291649108831</v>
-      </c>
-      <c r="O10" s="37">
-        <f t="shared" si="3"/>
-        <v>2.439961903201103E-2</v>
-      </c>
-      <c r="P10" s="35">
+      <c r="N10" s="43">
+        <f t="shared" si="6"/>
+        <v>42.762792793414725</v>
+      </c>
+      <c r="O10" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="P10" s="48">
         <f>L10+I10+D10+N10+G10</f>
-        <v>351.55143488728675</v>
-      </c>
-      <c r="Q10" s="41">
+        <v>370.01434105784364</v>
+      </c>
+      <c r="Q10" s="49">
         <f>L10+I10+D10+G10</f>
-        <v>293.94114323817792</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3">
+        <v>327.25154826442889</v>
+      </c>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50">
         <f>D10/E10</f>
-        <v>351.55143488728675</v>
-      </c>
-      <c r="T10" s="37">
+        <v>370.01434105784364</v>
+      </c>
+      <c r="T10" s="27">
         <f t="shared" si="4"/>
-        <v>2.299999999999992E-2</v>
+        <v>3.5462325180256424E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D12" s="22"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
+      <c r="G14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>L5+I5+D5</f>
+        <v>257.39999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -1132,232 +1266,285 @@
       <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="38">
+        <f>P5</f>
+        <v>310.13157894736838</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="10">
-        <f>D16*(1+E17)</f>
-        <v>267.69599999999997</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="16">
+        <f>P6-H17</f>
+        <v>326.72971052631573</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" ref="E17:E21" si="8">(D17-D16)/D16</f>
+        <v>5.3519643614764467E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10">
-        <f t="shared" ref="D18:D21" si="6">D17*(1+E18)</f>
-        <v>278.40384</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="16">
+        <f>P7-I18</f>
+        <v>337.97699823684206</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="8"/>
+        <v>3.4423829080032345E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>-5</v>
+      </c>
+      <c r="I18">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10">
-        <f t="shared" si="6"/>
-        <v>289.5399936</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="16">
+        <f t="shared" ref="D19:D21" si="9">P8-I19</f>
+        <v>356.37567157557885</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="8"/>
+        <v>5.4437649410223055E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>-15.7</v>
+      </c>
+      <c r="I19">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10">
-        <f t="shared" si="6"/>
-        <v>301.12159334400002</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="16">
+        <f t="shared" si="9"/>
+        <v>365.14215727591096</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="8"/>
+        <v>2.459900155803129E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>-23.5</v>
+      </c>
+      <c r="I20">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" si="6"/>
-        <v>313.16645707776001</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="16">
+        <f>P10-I21</f>
+        <v>373.71434105784363</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="8"/>
+        <v>2.3476291660990814E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>-27.2</v>
+      </c>
+      <c r="I21">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="36">
         <f>P5-D16</f>
-        <v>52.731578947368405</v>
-      </c>
-      <c r="G26" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="11">
         <f>P6-D17</f>
-        <v>53.29018421052632</v>
-      </c>
-      <c r="G27" s="38">
-        <v>3.6844999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+        <v>-1.8999999999999773</v>
+      </c>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="36">
         <f>P7-D18</f>
-        <v>49.965026447368359</v>
-      </c>
-      <c r="G28" s="38">
-        <v>2.71463375</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+        <v>-3.1000000000000227</v>
+      </c>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="36">
         <f>P8-D19</f>
-        <v>46.381356775657764</v>
-      </c>
-      <c r="G29" s="38">
-        <v>-0.88257792189999995</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+        <v>-10.699999999999989</v>
+      </c>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="36">
         <f>P9-D20</f>
-        <v>42.525948090297902</v>
-      </c>
-      <c r="G30" s="38">
-        <v>-4.7217511569999999</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+        <v>-7.8000000000000114</v>
+      </c>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="37">
         <f>P10-D21</f>
-        <v>38.384977809526731</v>
-      </c>
-      <c r="G31" s="38">
-        <v>-5.442795791</v>
-      </c>
+        <v>-3.6999999999999886</v>
+      </c>
+      <c r="G31" s="40"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29">
+      <c r="B36" s="18"/>
+      <c r="C36" s="21">
         <v>235.7</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="21">
         <v>11.2</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="21">
         <v>10.5</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="20">
         <v>14</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="18">
         <f>H36-SUM(C36:F36)</f>
         <v>29.100000000000023</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="18">
         <v>300.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="30">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="22">
         <v>0.76</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="30">
+      <c r="D37" s="18"/>
+      <c r="E37" s="22">
         <v>0.04</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>1-0.76-0.04</f>
+        <v>0.19999999999999998</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A36" r:id="rId1" xr:uid="{20DDF4CA-30B7-1B41-BE32-B0748F0B5E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>